--- a/df1.xlsx
+++ b/df1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinillam\Desktop\vlookup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nokia-my.sharepoint.com/personal/miguel_martinez_murcia_nokia_com/Documents/Archivos personales/Automatizacion Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD867FDD-8234-49B8-945B-166A3D9CF2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{AD867FDD-8234-49B8-945B-166A3D9CF2D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26836BF6-AAC1-413D-A4C7-8F9255963F60}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Jugador</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>Ana</t>
+  </si>
+  <si>
+    <t>Nokia</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -381,76 +390,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
